--- a/SQL Excel/medium1_sql.xlsx
+++ b/SQL Excel/medium1_sql.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.iaccarino\Downloads\Json_Pipeline_associare_tabelle_Source_Destination\SQL Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.iaccarino\Downloads\Json_Pipeline_associare_tabelle_Source_Destination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E101C0-8B7B-4086-80A9-83CB3E7A8262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B53929-ECA7-4164-A8E6-25C8C0B50C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>source_column</t>
   </si>
@@ -28,91 +28,64 @@
     <t>target_column</t>
   </si>
   <si>
-    <t>NUM_AA_MM_GG</t>
+    <t>202004022359.</t>
+  </si>
+  <si>
+    <t>M.COD_AGENZIA.</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_ABI</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_AGENZIA</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_DEPOSITO</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_DIVISA</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_GIACENZA_CONTABILE</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.NUM_ISTITUTO</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_MOLTIPLICATORE</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_MOLTIPLICATORE_9_DEC</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.DAT_RIFERIMENTO</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_CONTROVALORE_IN_EURO</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_SOTTODEPOSITO</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_TITOLO</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_FILIALE</t>
   </si>
   <si>
     <t>COD_KEY_SALDI_TITOLI</t>
   </si>
   <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_ABI</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_AGENZIA</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_DEPOSITO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_DIVISA</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_GIACENZA_CONTABILE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.NUM_ISTITUTO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_MOLTIPLICATORE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_MOLTIPLICATORE_9_DEC</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.DAT_RIFERIMENTO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_CONTROVALORE_IN_EURO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_SOTTODEPOSITO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_TITOLO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_FILIALE</t>
-  </si>
-  <si>
-    <t>#COD_SIST_ALIMNTNT#</t>
-  </si>
-  <si>
-    <t>#COD_SSA_PROVNNZ#</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_GIACENZA_REGISTRAZIONE</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_GIACENZA_VALUTA</t>
-  </si>
-  <si>
-    <t>#TMS_CARICAMENTO#.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.NUM_ISTITUTO.</t>
-  </si>
-  <si>
-    <t>#COD_SIST_ALIMNTNT#.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_TITOLO.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_AGENZIA.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_ABI.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_DIVISA.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_SOTTODEPOSITO.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_FILIALE.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.COD_DEPOSITO.</t>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_GIACENZA_REGISTRAZIONE</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VE_A1_HD_ARCH_DATA_HOU_SAL_GG_ON.IMP_GIACENZA_VALUTA</t>
   </si>
   <si>
     <t>num_aa_mm_gg</t>
@@ -534,16 +507,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="109.36328125" customWidth="1"/>
-    <col min="2" max="2" width="107.7265625" customWidth="1"/>
+    <col min="1" max="1" width="97.6328125" customWidth="1"/>
+    <col min="2" max="2" width="98.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -559,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -567,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -575,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -583,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -591,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -599,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -607,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -615,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -623,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -631,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -639,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -647,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -655,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -663,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -671,132 +644,47 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
         <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
